--- a/report_ca_nhan/SÓC TRĂNG/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4283571.428571429</v>
+        <v>5825000</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3329978.571428571</v>
+        <v>4279264.285714285</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1550000</v>
+        <v>2278571.428571429</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1990000</v>
+        <v>2558571.428571429</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>7653550</v>
+        <v>11441407.14285714</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/SÓC TRĂNG/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/Tổng hợp lương nhân viên tại SÓC TRĂNG 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5825000</v>
+        <v>6735000</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4279264.285714285</v>
+        <v>4319264.285714285</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>11441407.14285714</v>
+        <v>12391407.14285714</v>
       </c>
     </row>
   </sheetData>
